--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
@@ -1565,7 +1565,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("magic_stone"));</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("ether"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("crystal"));</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;7; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;2; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;7; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;2; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,60 +498,90 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>narr_1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>（ロビーは相変わらず、異次元の歪みが軋む不快な音に満ちている。）</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>（ロビーは相変わらず、異次元の歪みが軋む不快な音に満ちている。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>（リリィは眉間に皺を寄せ、羽根ペンを乱暴に机に置いた。その前には、どこか禍々しい幾何学模様が描かれた、古ぼけた設計図が広げられている。）</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>（リリィは眉間に皺を寄せ、羽根ペンを乱暴に机に置いた。その前には、どこか禍々しい幾何学模様が描かれた、古ぼけた設計図が広げられている。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>……あぁ、忌々しい。</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>……あぁ、忌々しい。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>narr_1</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>（ロビーは相変わらず、異次元の歪みが軋む不快な音に満ちている。）</t>
+          <t>このロビーの『雑音』のせいで、私の大切な研究がちっとも進みません。戦士たちの絶望、観客の哄笑、次元の摩擦音……これらは本来、純粋な『魔力の残滓』として回収されるべきものなのに。</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>（ロビーは相変わらず、異次元の歪みが軋む不快な音に満ちている。）</t>
+          <t>このロビーの『雑音』のせいで、私の大切な研究がちっとも進みません。戦士たちの絶望、観客の哄笑、次元の摩擦音……これらは本来、純粋な『魔力の残滓』として回収されるべきものなのに。</t>
         </is>
       </c>
     </row>
@@ -563,17 +593,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>（リリィは眉間に皺を寄せ、羽根ペンを乱暴に机に置いた。その前には、どこか禍々しい幾何学模様が描かれた、古ぼけた設計図が広げられている。）</t>
+          <t>（彼女はあなたを見つけ、わずかに目を細める。）</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>（リリィは眉間に皺を寄せ、羽根ペンを乱暴に机に置いた。その前には、どこか禍々しい幾何学模様が描かれた、古ぼけた設計図が広げられている。）</t>
+          <t>（彼女はあなたを見つけ、わずかに目を細める。）</t>
         </is>
       </c>
     </row>
@@ -585,17 +615,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>……あぁ、忌々しい。</t>
+          <t>ねえ、そこの『泥犬』さん。少しは私に牙以外の役に立つところを見せてくださる？</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>……あぁ、忌々しい。</t>
+          <t>ねえ、そこの『泥犬』さん。少しは私に牙以外の役に立つところを見せてくださる？</t>
         </is>
       </c>
     </row>
@@ -607,171 +637,141 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>このロビーの『雑音』のせいで、私の大切な研究がちっとも進みません。戦士たちの絶望、観客の哄笑、次元の摩擦音……これらは本来、純粋な『魔力の残滓』として回収されるべきものなのに。</t>
+          <t>私の研究のために、特別な『実験用具』が必要なのです。……そう、地上の安っぽい職人では形にすることすら叶わない、特別な器が。</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>このロビーの『雑音』のせいで、私の大切な研究がちっとも進みません。戦士たちの絶望、観客の哄笑、次元の摩擦音……これらは本来、純粋な『魔力の残滓』として回収されるべきものなのに。</t>
+          <t>私の研究のために、特別な『実験用具』が必要なのです。……そう、地上の安っぽい職人では形にすることすら叶わない、特別な器が。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>react1_what</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>c1_what</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>（彼女はあなたを見つけ、わずかに目を細める。）</t>
+          <t>どんな器が必要なんだ？</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>（彼女はあなたを見つけ、わずかに目を細める。）</t>
+          <t>どんな器が必要なんだ？</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>react1_reward</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>c1_reward</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ねえ、そこの『泥犬』さん。少しは私に牙以外の役に立つところを見せてくださる？</t>
+          <t>報酬次第だな</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ねえ、そこの『泥犬』さん。少しは私に牙以外の役に立つところを見せてくださる？</t>
+          <t>報酬次第だな</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>react1_skill</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>c1_skill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>私の研究のために、特別な『実験用具』が必要なのです。……そう、地上の安っぽい職人では形にすることすら叶わない、特別な器が。</t>
+          <t>俺に製作技術があると思うのか？</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>私の研究のために、特別な『実験用具』が必要なのです。……そう、地上の安っぽい職人では形にすることすら叶わない、特別な器が。</t>
+          <t>俺に製作技術があると思うのか？</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>c1_what</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>どんな器が必要なんだ？</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>どんな器が必要なんだ？</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>react1_reward</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>c1_reward</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>報酬次第だな</t>
+          <t>ふふ、興味を持っていただけましたか。では、詳しくご説明いたしましょう。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>報酬次第だな</t>
+          <t>ふふ、興味を持っていただけましたか。では、詳しくご説明いたしましょう。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>react1_skill</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>c1_skill</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>俺に製作技術があると思うのか？</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>俺に製作技術があると思うのか？</t>
+          <t>scene2_requirements</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>react1_what</t>
+          <t>react1_reward</t>
         </is>
       </c>
     </row>
@@ -783,17 +783,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ふふ、興味を持っていただけましたか。では、詳しくご説明いたしましょう。</t>
+          <t>まあ、現実的ですこと。ええ、もちろん報酬はお支払いいたしますよ。</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ふふ、興味を持っていただけましたか。では、詳しくご説明いたしましょう。</t>
+          <t>まあ、現実的ですこと。ええ、もちろん報酬はお支払いいたしますよ。</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>react1_reward</t>
+          <t>react1_skill</t>
         </is>
       </c>
     </row>
@@ -819,17 +819,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>まあ、現実的ですこと。ええ、もちろん報酬はお支払いいたしますよ。</t>
+          <t>……どうでしょうね。試してみなければ分かりませんが、少なくとも期待はしていますよ。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>まあ、現実的ですこと。ええ、もちろん報酬はお支払いいたしますよ。</t>
+          <t>……どうでしょうね。試してみなければ分かりませんが、少なくとも期待はしていますよ。</t>
         </is>
       </c>
     </row>
@@ -843,231 +843,231 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_skill</t>
+          <t>scene2_requirements</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>……どうでしょうね。試してみなければ分かりませんが、少なくとも期待はしていますよ。</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>……どうでしょうね。試してみなければ分かりませんが、少なくとも期待はしていますよ。</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Mystical_Ritual");             var data = SoundManager.current.GetData("BGM/Mystical_Ritual");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Mystical_Ritual");             }</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>scene2_requirements</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>（リリィは細長い指先で設計図の一点を鋭く指し示した。そこには、内部に複雑な空洞を持つ、特殊な瓶のような構造が描かれている。）</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>（リリィは細長い指先で設計図の一点を鋭く指し示した。そこには、内部に複雑な空洞を持つ、特殊な瓶のような構造が描かれている。）</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>scene2_requirements</t>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>必要なのは**『虚空の共鳴瓶』**。ただのガラスや石では、次元の圧力に耐えきれず粉々に砕けてしまうわ。</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>必要なのは**『虚空の共鳴瓶』**。ただのガラスや石では、次元の圧力に耐えきれず粉々に砕けてしまうわ。</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Mystical_Ritual");             var data = SoundManager.current.GetData("BGM/Mystical_Ritual");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Mystical_Ritual");             }</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>あなたがもし、『石細工』あるいは『ガラス工芸』の心得があるのなら、**黒曜石**か**高品質な水晶**を素材にして、これを作りなさい。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>あなたがもし、『石細工』あるいは『ガラス工芸』の心得があるのなら、**黒曜石**か**高品質な水晶**を素材にして、これを作りなさい。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>（リリィは細長い指先で設計図の一点を鋭く指し示した。そこには、内部に複雑な空洞を持つ、特殊な瓶のような構造が描かれている。）</t>
+          <t>素材そのものの品質も重要ですが、何よりあなたの『集中力』が試されます。……ふふ、もし不出来なものを持ち込んだら、その器の代わりにあなたの頭蓋骨を加工して使うことになりますが、よろしいかしら？</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>（リリィは細長い指先で設計図の一点を鋭く指し示した。そこには、内部に複雑な空洞を持つ、特殊な瓶のような構造が描かれている。）</t>
+          <t>素材そのものの品質も重要ですが、何よりあなたの『集中力』が試されます。……ふふ、もし不出来なものを持ち込んだら、その器の代わりにあなたの頭蓋骨を加工して使うことになりますが、よろしいかしら？</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>react2_accept</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>c2_accept</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>必要なのは**『虚空の共鳴瓶』**。ただのガラスや石では、次元の圧力に耐えきれず粉々に砕けてしまうわ。</t>
+          <t>任せてくれ。作ってみせる</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>必要なのは**『虚空の共鳴瓶』**。ただのガラスや石では、次元の圧力に耐えきれず粉々に砕けてしまうわ。</t>
+          <t>任せてくれ。作ってみせる</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>react2_skull</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>c2_skull</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>あなたがもし、『石細工』あるいは『ガラス工芸』の心得があるのなら、**黒曜石**か**高品質な水晶**を素材にして、これを作りなさい。</t>
+          <t>……頭蓋骨は勘弁してくれ</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>あなたがもし、『石細工』あるいは『ガラス工芸』の心得があるのなら、**黒曜石**か**高品質な水晶**を素材にして、これを作りなさい。</t>
+          <t>……頭蓋骨は勘弁してくれ</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>react2_specs</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>c2_specs</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>素材そのものの品質も重要ですが、何よりあなたの『集中力』が試されます。……ふふ、もし不出来なものを持ち込んだら、その器の代わりにあなたの頭蓋骨を加工して使うことになりますが、よろしいかしら？</t>
+          <t>具体的な要求仕様は？</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>素材そのものの品質も重要ですが、何よりあなたの『集中力』が試されます。……ふふ、もし不出来なものを持ち込んだら、その器の代わりにあなたの頭蓋骨を加工して使うことになりますが、よろしいかしら？</t>
+          <t>具体的な要求仕様は？</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>react2_accept</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>c2_accept</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>任せてくれ。作ってみせる</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>任せてくれ。作ってみせる</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>react2_skull</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>c2_skull</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>……頭蓋骨は勘弁してくれ</t>
+          <t>ふふ、自信がおありで結構。では、期待しておりますね。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>……頭蓋骨は勘弁してくれ</t>
+          <t>ふふ、自信がおありで結構。では、期待しておりますね。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>react2_specs</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>c2_specs</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>具体的な要求仕様は？</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>具体的な要求仕様は？</t>
+          <t>scene3_crafting</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>react2_accept</t>
+          <t>react2_skull</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ふふ、自信がおありで結構。では、期待しておりますね。</t>
+          <t>まあ、ご心配なく。冗談ですよ。……多分。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>ふふ、自信がおありで結構。では、期待しておりますね。</t>
+          <t>まあ、ご心配なく。冗談ですよ。……多分。</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>react2_skull</t>
+          <t>react2_specs</t>
         </is>
       </c>
     </row>
@@ -1115,17 +1115,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_r6</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>まあ、ご心配なく。冗談ですよ。……多分。</t>
+          <t>おや、職人気質ですこと。では、細部までご説明いたしましょう。</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>まあ、ご心配なく。冗談ですよ。……多分。</t>
+          <t>おや、職人気質ですこと。では、細部までご説明いたしましょう。</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>react2_specs</t>
+          <t>scene3_crafting</t>
         </is>
       </c>
     </row>
@@ -1151,167 +1151,197 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lily_r6</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>おや、職人気質ですこと。では、細部までご説明いたしましょう。</t>
+          <t>器が完成したら、仕上げに**『ヴォイド・プチの粘液』**で内側をコーティングすること。それでようやく、この異次元の『音』を閉じ込めるための膜が完成します。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>おや、職人気質ですこと。では、細部までご説明いたしましょう。</t>
+          <t>器が完成したら、仕上げに**『ヴォイド・プチの粘液』**で内側をコーティングすること。それでようやく、この異次元の『音』を閉じ込めるための膜が完成します。</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>scene3_crafting</t>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>lily_9</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>さあ、作業台へ向かいなさい。あなたがただの暴力装置ではなく、繊細な手先を持つ『創造者』でもあることを、私に証明してみせるのです。</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>さあ、作業台へ向かいなさい。あなたがただの暴力装置ではなく、繊細な手先を持つ『創造者』でもあることを、私に証明してみせるのです。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>scene3_crafting</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>lily_10</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>……期待はしていませんが、楽しみにはしていますよ？</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>……期待はしていませんが、楽しみにはしていますよ？</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>器が完成したら、仕上げに**『ヴォイド・プチの粘液』**で内側をコーティングすること。それでようやく、この異次元の『音』を閉じ込めるための膜が完成します。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。黒曜石または水晶、ヴォイド・プチの粘液を消費して『虚空の共鳴瓶』を作成する。）</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>器が完成したら、仕上げに**『ヴォイド・プチの粘液』**で内側をコーティングすること。それでようやく、この異次元の『音』を閉じ込めるための膜が完成します。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。黒曜石または水晶、ヴォイド・プチの粘液を消費して『虚空の共鳴瓶』を作成する。）</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>lily_9</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>さあ、作業台へ向かいなさい。あなたがただの暴力装置ではなく、繊細な手先を持つ『創造者』でもあることを、私に証明してみせるのです。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>さあ、作業台へ向かいなさい。あなたがただの暴力装置ではなく、繊細な手先を持つ『創造者』でもあることを、私に証明してみせるのです。</t>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>scene4_delivery</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>lily_10</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>……期待はしていませんが、楽しみにはしていますよ？</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>……期待はしていませんが、楽しみにはしていますよ？</t>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>scene4_delivery</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。黒曜石または水晶、ヴォイド・プチの粘液を消費して『虚空の共鳴瓶』を作成する。）</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。黒曜石または水晶、ヴォイド・プチの粘液を消費して『虚空の共鳴瓶』を作成する。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>scene4_delivery</t>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（リリィは差し出された器を目の高さに掲げ、偏光する光を透かして微細な傷一つないかを確認する。）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（リリィは差し出された器を目の高さに掲げ、偏光する光を透かして微細な傷一つないかを確認する。）</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>scene4_delivery</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>lily_11</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>……あら。意外ですね。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>……あら。意外ですね。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_12</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>（リリィは差し出された器を目の高さに掲げ、偏光する光を透かして微細な傷一つないかを確認する。）</t>
+          <t>あんな泥にまみれた手で、これほどまでに滑らかな曲線を描き出すなんて。合格です。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>（リリィは差し出された器を目の高さに掲げ、偏光する光を透かして微細な傷一つないかを確認する。）</t>
+          <t>あんな泥にまみれた手で、これほどまでに滑らかな曲線を描き出すなんて。合格です。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
         </is>
       </c>
     </row>
@@ -1323,17 +1353,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
+          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
+          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1375,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>lily_11</t>
+          <t>lily_13</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……あら。意外ですね。</t>
+          <t>これはお礼です。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……あら。意外ですね。</t>
+          <t>これはお礼です。</t>
         </is>
       </c>
     </row>
@@ -1367,289 +1397,249 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>lily_12</t>
+          <t>lily_14</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>あんな泥にまみれた手で、これほどまでに滑らかな曲線を描き出すなんて。合格です。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
+          <t>観客からの報酬として、**小さなコイン7枚**と**プラチナコイン2枚**を台帳に記録いたしました。それと、この器を使って精製した素材を、一つ選んでいただけます。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>あんな泥にまみれた手で、これほどまでに滑らかな曲線を描き出すなんて。合格です。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
+          <t>観客からの報酬として、**小さなコイン7枚**と**プラチナコイン2枚**を台帳に記録いたしました。それと、この器を使って精製した素材を、一つ選んでいただけます。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>reward_mana</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>c_reward_mana</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
+          <t>魔力の結晶を頼む</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
+          <t>魔力の結晶を頼む</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>reward_ether</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>lily_13</t>
+          <t>c_reward_ether</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>これはお礼です。</t>
+          <t>エーテルの欠片が欲しい</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>これはお礼です。</t>
+          <t>エーテルの欠片が欲しい</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>reward_glass</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>lily_14</t>
+          <t>c_reward_glass</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>観客からの報酬として、**小さなコイン7枚**と**プラチナコイン2枚**を台帳に記録いたしました。それと、この器を使って精製した素材を、一つ選んでいただけます。</t>
+          <t>ガラスの破片を選ぶ</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>観客からの報酬として、**小さなコイン7枚**と**プラチナコイン2枚**を台帳に記録いたしました。それと、この器を使って精製した素材を、一つ選んでいただけます。</t>
+          <t>ガラスの破片を選ぶ</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>reward_mana</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>c_reward_mana</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>魔力の結晶を頼む</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>魔力の結晶を頼む</t>
-        </is>
-      </c>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>lily_rew1</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>『魔力の結晶×1』、記録いたしました。この器で精製した、純粋な魔力の塊ですよ。</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>『魔力の結晶×1』、記録いたしました。この器で精製した、純粋な魔力の塊ですよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("magic_stone"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>reward_ether</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>lily_rew2</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>『エーテルの欠片×1』、記録いたしました。……慎重にお使いくださいね。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>『エーテルの欠片×1』、記録いたしました。……慎重にお使いくださいね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("crystal"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>reward_glass</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>c_reward_glass</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>ガラスの破片を選ぶ</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>ガラスの破片を選ぶ</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>lily_rew1</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。この器で精製した、純粋な魔力の塊ですよ。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。この器で精製した、純粋な魔力の塊ですよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>lily_rew3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>『ガラスの破片×1』ですね。……地味な選択ですが、実用的です。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>『ガラスの破片×1』ですね。……地味な選択ですが、実用的です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("magic_stone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("glass"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。……慎重にお使いくださいね。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。……慎重にお使いくださいね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("crystal"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>reward_glass</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>『ガラスの破片×1』ですね。……地味な選択ですが、実用的です。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>『ガラスの破片×1』ですね。……地味な選択ですが、実用的です。</t>
         </is>
       </c>
     </row>
@@ -1661,165 +1651,175 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("glass"));</t>
+          <t>for(int i=0; i&lt;7; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;2; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>lily_15</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>それと……あなたの技術を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>それと……あなたの技術を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>lily_16</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
         </is>
       </c>
     </row>
     <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>final_accept</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;7; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;2; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>c_final_accept</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>いつでも頼んでくれ</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>いつでも頼んでくれ</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>final_reward</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>lily_15</t>
+          <t>c_final_reward</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>それと……あなたの技術を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
+          <t>報酬次第だがな</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>それと……あなたの技術を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
+          <t>報酬次第だがな</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>final_silent</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>lily_16</t>
+          <t>c_final_silent</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>final_accept</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>c_final_accept</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>いつでも頼んでくれ</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>いつでも頼んでくれ</t>
-        </is>
-      </c>
     </row>
     <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>final_reward</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>c_final_reward</t>
+          <t>lily_f1</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>報酬次第だがな</t>
+          <t>ふふ、頼もしいこと。では、またお願いいたしますね。</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>報酬次第だがな</t>
+          <t>ふふ、頼もしいこと。では、またお願いいたしますね。</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>final_silent</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>c_final_silent</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>final_accept</t>
+          <t>final_reward</t>
         </is>
       </c>
     </row>
@@ -1831,17 +1831,17 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>lily_f1</t>
+          <t>lily_f2</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>ふふ、頼もしいこと。では、またお願いいたしますね。</t>
+          <t>まあ、現実的ですこと。ええ、もちろんお支払いはしますよ。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>ふふ、頼もしいこと。では、またお願いいたしますね。</t>
+          <t>まあ、現実的ですこと。ええ、もちろんお支払いはしますよ。</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>final_reward</t>
+          <t>final_silent</t>
         </is>
       </c>
     </row>
@@ -1867,17 +1867,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>lily_f2</t>
+          <t>lily_f3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>まあ、現実的ですこと。ええ、もちろんお支払いはしますよ。</t>
+          <t>……無口ですが、仕事はきっちりとこなす。良い職人気質ですね。</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>まあ、現実的ですこと。ええ、もちろんお支払いはしますよ。</t>
+          <t>……無口ですが、仕事はきっちりとこなす。良い職人気質ですね。</t>
         </is>
       </c>
     </row>
@@ -1891,82 +1891,46 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>final_silent</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>complete_quest(05_1_lily_experiment)</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>lily_f3</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>……無口ですが、仕事はきっちりとこなす。良い職人気質ですね。</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>……無口ですが、仕事はきっちりとこなす。良い職人気質ですね。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +5)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>complete_quest(05_1_lily_experiment)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +5)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="D97" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>私の研究のために、特別な『実験用具』が必要なのです。……そう、地上の安っぽい職人では形にすることすら叶わない、特別な器が。</t>
+          <t>私の研究のために、特別な『実験用具』が必要なのです。……材料さえあれば、私が作れるのですが。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>私の研究のために、特別な『実験用具』が必要なのです。……そう、地上の安っぽい職人では形にすることすら叶わない、特別な器が。</t>
+          <t>私の研究のために、特別な『実験用具』が必要なのです。……材料さえあれば、私が作れるのですが。</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>どんな器が必要なんだ？</t>
+          <t>どんな材料が必要なんだ？</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>どんな器が必要なんだ？</t>
+          <t>どんな材料が必要なんだ？</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>react1_skill</t>
+          <t>react1_help</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>c1_skill</t>
+          <t>c1_help</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>俺に製作技術があると思うのか？</t>
+          <t>手伝おう</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>俺に製作技術があると思うのか？</t>
+          <t>手伝おう</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_skill</t>
+          <t>react1_help</t>
         </is>
       </c>
     </row>
@@ -860,12 +860,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>……どうでしょうね。試してみなければ分かりませんが、少なくとも期待はしていますよ。</t>
+          <t>あら、素直ですこと。では、お願いいたしますね。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>……どうでしょうね。試してみなければ分かりませんが、少なくとも期待はしていますよ。</t>
+          <t>あら、素直ですこと。では、お願いいたしますね。</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>必要なのは**『虚空の共鳴瓶』**。ただのガラスや石では、次元の圧力に耐えきれず粉々に砕けてしまうわ。</t>
+          <t>必要なのは**『虚空の共鳴瓶』**。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>必要なのは**『虚空の共鳴瓶』**。ただのガラスや石では、次元の圧力に耐えきれず粉々に砕けてしまうわ。</t>
+          <t>必要なのは**『虚空の共鳴瓶』**。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>あなたがもし、『石細工』あるいは『ガラス工芸』の心得があるのなら、**黒曜石**か**高品質な水晶**を素材にして、これを作りなさい。</t>
+          <t>器の製作は私が行います。あなたには、材料を集めてきてほしいのです。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>あなたがもし、『石細工』あるいは『ガラス工芸』の心得があるのなら、**黒曜石**か**高品質な水晶**を素材にして、これを作りなさい。</t>
+          <t>器の製作は私が行います。あなたには、材料を集めてきてほしいのです。</t>
         </is>
       </c>
     </row>
@@ -974,46 +974,41 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>素材そのものの品質も重要ですが、何よりあなたの『集中力』が試されます。……ふふ、もし不出来なものを持ち込んだら、その器の代わりにあなたの頭蓋骨を加工して使うことになりますが、よろしいかしら？</t>
+          <t>必要なのは**『骨』**。生き物の残骸に宿る魔力の残滓……それが、器の核となるのです。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>素材そのものの品質も重要ですが、何よりあなたの『集中力』が試されます。……ふふ、もし不出来なものを持ち込んだら、その器の代わりにあなたの頭蓋骨を加工して使うことになりますが、よろしいかしら？</t>
+          <t>必要なのは**『骨』**。生き物の残骸に宿る魔力の残滓……それが、器の核となるのです。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>react2_accept</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>c2_accept</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>任せてくれ。作ってみせる</t>
+          <t>闘技場で倒した敵から手に入るでしょう。……一つで十分ですよ。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>任せてくれ。作ってみせる</t>
+          <t>闘技場で倒した敵から手に入るでしょう。……一つで十分ですよ。</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>react2_skull</t>
+          <t>react2_accept</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1023,24 +1018,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>c2_skull</t>
+          <t>c2_accept</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>……頭蓋骨は勘弁してくれ</t>
+          <t>任せてくれ</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>……頭蓋骨は勘弁してくれ</t>
+          <t>任せてくれ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>react2_specs</t>
+          <t>react2_bone</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1050,154 +1045,159 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>c2_specs</t>
+          <t>c2_bone</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>具体的な要求仕様は？</t>
+          <t>骨……どこで手に入る？</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>具体的な要求仕様は？</t>
+          <t>骨……どこで手に入る？</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>react2_silent</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c2_silent</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>react2_accept</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+    <row r="41">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>ふふ、自信がおありで結構。では、期待しておりますね。</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>ふふ、自信がおありで結構。では、期待しておりますね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>scene3_crafting</t>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ふふ、頼もしいこと。では、お待ちしておりますね。</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ふふ、頼もしいこと。では、お待ちしておりますね。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>react2_skull</t>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>check_materials</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>react2_bone</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>lily_r5</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>まあ、ご心配なく。冗談ですよ。……多分。</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>まあ、ご心配なく。冗談ですよ。……多分。</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>scene3_crafting</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>闘技場の敵を倒せば手に入りますよ。骨を持った生き物ならどれでも構いません。</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>闘技場の敵を倒せば手に入りますよ。骨を持った生き物ならどれでも構いません。</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>react2_specs</t>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>check_materials</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>react2_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>lily_r6</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>おや、職人気質ですこと。では、細部までご説明いたしましょう。</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>おや、職人気質ですこと。では、細部までご説明いたしましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>scene3_crafting</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>……無口ですが、仕事はきっちりこなしてくださるのでしょう？</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>……無口ですが、仕事はきっちりこなしてくださるのでしょう？</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>scene3_crafting</t>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>check_materials</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>器が完成したら、仕上げに**『ヴォイド・プチの粘液』**で内側をコーティングすること。それでようやく、この異次元の『音』を閉じ込めるための膜が完成します。</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>器が完成したら、仕上げに**『ヴォイド・プチの粘液』**で内側をコーティングすること。それでようやく、この異次元の『音』を閉じ込めるための膜が完成します。</t>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>check_materials</t>
         </is>
       </c>
     </row>
@@ -1209,131 +1209,131 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>lily_check</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>さあ、作業台へ向かいなさい。あなたがただの暴力装置ではなく、繊細な手先を持つ『創造者』でもあることを、私に証明してみせるのです。</t>
+          <t>……さて、骨はお持ちですか？</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>さあ、作業台へ向かいなさい。あなたがただの暴力装置ではなく、繊細な手先を持つ『創造者』でもあることを、私に証明してみせるのです。</t>
+          <t>……さて、骨はお持ちですか？</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>has_material</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>hasItem,bone</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>lily_10</t>
+          <t>c_give_bone</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>……期待はしていませんが、楽しみにはしていますよ？</t>
+          <t>骨を渡す</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>……期待はしていませんが、楽しみにはしていますよ？</t>
+          <t>骨を渡す</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>no_material</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>c_no_bone</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。黒曜石または水晶、ヴォイド・プチの粘液を消費して『虚空の共鳴瓶』を作成する。）</t>
+          <t>まだ持っていない</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。黒曜石または水晶、ヴォイド・プチの粘液を消費して『虚空の共鳴瓶』を作成する。）</t>
+          <t>まだ持っていない</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>has_material</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>var mat = EClass.pc.things.Find(t =&gt; t.id == "bone"); if(mat != null) mat.Destroy();</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>lily_take</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>……ありがとうございます。優秀ですこと。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>……ありがとうございます。優秀ですこと。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
         <is>
           <t>scene4_delivery</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>scene4_delivery</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（リリィは差し出された器を目の高さに掲げ、偏光する光を透かして微細な傷一つないかを確認する。）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（リリィは差し出された器を目の高さに掲げ、偏光する光を透かして微細な傷一つないかを確認する。）</t>
-        </is>
-      </c>
-    </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>no_material</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>lily_11</t>
+          <t>lily_no_mat</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……あら。意外ですね。</t>
+          <t>そうですか。骨がまだ揃っていないのですね。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……あら。意外ですね。</t>
+          <t>そうですか。骨がまだ揃っていないのですね。</t>
         </is>
       </c>
     </row>
@@ -1367,606 +1367,333 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>lily_12</t>
+          <t>lily_no_mat2</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>あんな泥にまみれた手で、これほどまでに滑らかな曲線を描き出すなんて。合格です。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
+          <t>闘技場で戦えば手に入りますよ。……探してきてくださいな。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>あんな泥にまみれた手で、これほどまでに滑らかな曲線を描き出すなんて。合格です。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
+          <t>闘技場で戦えば手に入りますよ。……探してきてくださいな。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>scene4_delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>lily_13</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>これはお礼です。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>これはお礼です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>lily_14</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、**小さなコイン7枚**と**プラチナコイン2枚**を台帳に記録いたしました。それと、この器を使って精製した素材を、一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、**小さなコイン7枚**と**プラチナコイン2枚**を台帳に記録いたしました。それと、この器を使って精製した素材を、一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>c_reward_mana</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>魔力の結晶を頼む</t>
+          <t>（リリィは骨を受け取ると、それを机の上に置いた。）</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>魔力の結晶を頼む</t>
+          <t>（リリィは骨を受け取ると、それを机の上に置いた。）</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>c_reward_ether</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>エーテルの欠片が欲しい</t>
+          <t>（彼女は骨に指先を当て、何やら呪文を唱え始める。骨が淡く光り、徐々にその形を変えていく。）</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>エーテルの欠片が欲しい</t>
+          <t>（彼女は骨に指先を当て、何やら呪文を唱え始める。骨が淡く光り、徐々にその形を変えていく。）</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>reward_glass</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>c_reward_glass</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ガラスの破片を選ぶ</t>
+          <t>（数分後、そこには精緻な模様が刻まれた、小さな器が現れた。）</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ガラスの破片を選ぶ</t>
+          <t>（数分後、そこには精緻な模様が刻まれた、小さな器が現れた。）</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>lily_11</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>……完成です。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>……完成です。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>lily_rew1</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>『魔力の結晶×1』、記録いたしました。この器で精製した、純粋な魔力の塊ですよ。</t>
+          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>『魔力の結晶×1』、記録いたしました。この器で精製した、純粋な魔力の塊ですよ。</t>
+          <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>lily_12</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ふふ、良い素材でした。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ふふ、良い素材でした。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>lily_13</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>これはお礼です。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>これはお礼です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。……慎重にお使いくださいね。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。……慎重にお使いくださいね。</t>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;20; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("ether"));</t>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>lily_14</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>**プラチナコイン20枚**を台帳に記録いたしました。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>**プラチナコイン20枚**を台帳に記録いたしました。</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>lily_15</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>それと……あなたの協力を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>それと……あなたの協力を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>reward_glass</t>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>lily_16</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>『ガラスの破片×1』ですね。……地味な選択ですが、実用的です。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>『ガラスの破片×1』ですね。……地味な選択ですが、実用的です。</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("glass"));</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>complete_quest(05_1_lily_experiment)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;7; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;2; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>lily_15</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>それと……あなたの技術を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>それと……あなたの技術を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>lily_16</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>final_accept</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>c_final_accept</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>いつでも頼んでくれ</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>いつでも頼んでくれ</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>final_reward</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>c_final_reward</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>報酬次第だがな</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>報酬次第だがな</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>final_silent</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>c_final_silent</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>final_accept</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>lily_f1</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>ふふ、頼もしいこと。では、またお願いいたしますね。</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>ふふ、頼もしいこと。では、またお願いいたしますね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>final_reward</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>lily_f2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>まあ、現実的ですこと。ええ、もちろんお支払いはしますよ。</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>まあ、現実的ですこと。ええ、もちろんお支払いはしますよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>final_silent</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>lily_f3</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>……無口ですが、仕事はきっちりとこなす。良い職人気質ですね。</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>……無口ですが、仕事はきっちりとこなす。良い職人気質ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>complete_quest(05_1_lily_experiment)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +5)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="D97" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
@@ -1608,12 +1608,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>**プラチナコイン20枚**を台帳に記録いたしました。</t>
+          <t>（プラチナコインを20枚もらった）</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>**プラチナコイン20枚**を台帳に記録いたしました。</t>
+          <t>（プラチナコインを20枚もらった）</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>それと……あなたの協力を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
+          <t>それと……あなたの協力を評価して、個人的に『繊細な泥犬』の称号を授与しましょう。ふふ、あなたは暴力だけではないのですね。</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>それと……あなたの協力を評価して、称号も記録しておきました。『繊細な泥犬』。ふふ、あなたは暴力だけではないのですね。</t>
+          <t>それと……あなたの協力を評価して、個人的に『繊細な泥犬』の称号を授与しましょう。ふふ、あなたは暴力だけではないのですね。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
@@ -930,12 +930,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>必要なのは**『虚空の共鳴瓶』**。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
+          <t>必要なのは『死の共鳴瓶』。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>必要なのは**『虚空の共鳴瓶』**。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
+          <t>必要なのは『死の共鳴瓶』。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>必要なのは**『骨』**。生き物の残骸に宿る魔力の残滓……それが、器の核となるのです。</t>
+          <t>必要なのは『骨』。強大な生き物の骨は、魂の入れ物として使えます……それが、器の核となるのです。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>必要なのは**『骨』**。生き物の残骸に宿る魔力の残滓……それが、器の核となるのです。</t>
+          <t>必要なのは『骨』。強大な生き物の骨は、魂の入れ物として使えます……それが、器の核となるのです。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_experiment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,202 +491,202 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーは相変わらず、異次元の歪みが軋む不快な音に満ちている。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（ロビーは相変わらず、異次元の歪みが軋む不快な音に満ちている。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（リリィは眉間に皺を寄せ、羽根ペンを乱暴に机に置いた。その前には、どこか禍々しい幾何学模様が描かれた、古ぼけた設計図が広げられている。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（リリィは眉間に皺を寄せ、羽根ペンを乱暴に机に置いた。その前には、どこか禍々しい幾何学模様が描かれた、古ぼけた設計図が広げられている。）</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>……あぁ、忌々しい。</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>……あぁ、忌々しい。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>このロビーの『雑音』のせいで、私の大切な研究がちっとも進みません。戦士たちの絶望、観客の哄笑、次元の摩擦音……これらは本来、純粋な『魔力の残滓』として回収されるべきものなのに。</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>このロビーの『雑音』のせいで、私の大切な研究がちっとも進みません。戦士たちの絶望、観客の哄笑、次元の摩擦音……これらは本来、純粋な『魔力の残滓』として回収されるべきものなのに。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>（彼女はあなたを見つけ、わずかに目を細める。）</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>（彼女はあなたを見つけ、わずかに目を細める。）</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ねえ、そこの『泥犬』さん。少しは私に牙以外の役に立つところを見せてくださる？</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>ねえ、そこの『泥犬』さん。少しは私に牙以外の役に立つところを見せてくださる？</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>私の研究のために、特別な『実験用具』が必要なのです。……材料さえあれば、私が作れるのですが。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>私の研究のために、特別な『実験用具』が必要なのです。……材料さえあれば、私が作れるのですが。</t>
         </is>
@@ -693,22 +698,22 @@
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>c1_what</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>どんな材料が必要なんだ？</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>どんな材料が必要なんだ？</t>
         </is>
@@ -720,22 +725,22 @@
           <t>react1_reward</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>c1_reward</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>報酬次第だな</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>報酬次第だな</t>
         </is>
@@ -747,22 +752,22 @@
           <t>react1_help</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>c1_help</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>手伝おう</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>手伝おう</t>
         </is>
@@ -776,22 +781,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>ふふ、興味を持っていただけましたか。では、詳しくご説明いたしましょう。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>ふふ、興味を持っていただけましたか。では、詳しくご説明いたしましょう。</t>
         </is>
@@ -812,22 +817,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>まあ、現実的ですこと。ええ、もちろん報酬はお支払いいたしますよ。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>まあ、現実的ですこと。ええ、もちろん報酬はお支払いいたしますよ。</t>
         </is>
@@ -848,22 +853,22 @@
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>lily_r3</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>あら、素直ですこと。では、お願いいたしますね。</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>あら、素直ですこと。では、お願いいたしますね。</t>
         </is>
@@ -884,122 +889,122 @@
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Mystical_Ritual");             var data = SoundManager.current.GetData("BGM/Mystical_Ritual");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Mystical_Ritual");             }</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>（リリィは細長い指先で設計図の一点を鋭く指し示した。そこには、内部に複雑な空洞を持つ、特殊な瓶のような構造が描かれている。）</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>（リリィは細長い指先で設計図の一点を鋭く指し示した。そこには、内部に複雑な空洞を持つ、特殊な瓶のような構造が描かれている。）</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>必要なのは『死の共鳴瓶』。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>必要なのは『死の共鳴瓶』。この器があれば、アリーナに満ちる雑音を……純粋な魔力として回収できるのです。</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>器の製作は私が行います。あなたには、材料を集めてきてほしいのです。</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>器の製作は私が行います。あなたには、材料を集めてきてほしいのです。</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>必要なのは『骨』。強大な生き物の骨は、魂の入れ物として使えます……それが、器の核となるのです。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>必要なのは『骨』。強大な生き物の骨は、魂の入れ物として使えます……それが、器の核となるのです。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>lily_8</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>闘技場で倒した敵から手に入るでしょう。……一つで十分ですよ。</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>闘技場で倒した敵から手に入るでしょう。……一つで十分ですよ。</t>
         </is>
@@ -1011,22 +1016,22 @@
           <t>react2_accept</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>c2_accept</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>任せてくれ</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>任せてくれ</t>
         </is>
@@ -1038,22 +1043,22 @@
           <t>react2_bone</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>c2_bone</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>骨……どこで手に入る？</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>骨……どこで手に入る？</t>
         </is>
@@ -1065,22 +1070,22 @@
           <t>react2_silent</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>c2_silent</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1094,22 +1099,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>ふふ、頼もしいこと。では、お待ちしておりますね。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>ふふ、頼もしいこと。では、お待ちしておりますね。</t>
         </is>
@@ -1130,22 +1135,22 @@
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>lily_r5</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>闘技場の敵を倒せば手に入りますよ。骨を持った生き物ならどれでも構いません。</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>闘技場の敵を倒せば手に入りますよ。骨を持った生き物ならどれでも構いません。</t>
         </is>
@@ -1166,22 +1171,22 @@
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>lily_r6</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>……無口ですが、仕事はきっちりこなしてくださるのでしょう？</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>……無口ですが、仕事はきっちりこなしてくださるのでしょう？</t>
         </is>
@@ -1202,22 +1207,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>lily_check</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>……さて、骨はお持ちですか？</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>……さて、骨はお持ちですか？</t>
         </is>
@@ -1234,22 +1239,22 @@
           <t>hasItem,bone</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>c_give_bone</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>骨を渡す</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>骨を渡す</t>
         </is>
@@ -1261,22 +1266,22 @@
           <t>no_material</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>c_no_bone</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>まだ持っていない</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>まだ持っていない</t>
         </is>
@@ -1290,34 +1295,34 @@
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>var mat = EClass.pc.things.Find(t =&gt; t.id == "bone"); if(mat != null) mat.Destroy();</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>lily_take</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>……ありがとうございます。優秀ですこと。</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>……ありがとうございます。優秀ですこと。</t>
         </is>
@@ -1338,51 +1343,51 @@
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>lily_no_mat</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>そうですか。骨がまだ揃っていないのですね。</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>そうですか。骨がまだ揃っていないのですね。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>lily_no_mat2</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>闘技場で戦えば手に入りますよ。……探してきてくださいな。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>闘技場で戦えば手に入りますよ。……探してきてくださいな。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -1396,266 +1401,266 @@
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>（リリィは骨を受け取ると、それを机の上に置いた。）</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>（リリィは骨を受け取ると、それを机の上に置いた。）</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>（彼女は骨に指先を当て、何やら呪文を唱え始める。骨が淡く光り、徐々にその形を変えていく。）</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>（彼女は骨に指先を当て、何やら呪文を唱え始める。骨が淡く光り、徐々にその形を変えていく。）</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>（数分後、そこには精緻な模様が刻まれた、小さな器が現れた。）</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>（数分後、そこには精緻な模様が刻まれた、小さな器が現れた。）</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>lily_11</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>……完成です。</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>……完成です。</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>（不意に、彼女の尻尾が満足げに揺れた。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>lily_12</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>ふふ、良い素材でした。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>ふふ、良い素材でした。これなら、このアリーナに満ちる『死の残響』を存分に吸い取ってくれるでしょう。</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>（彼女は器を丁寧に棚に置き、台帳を開く。）</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>lily_13</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>これはお礼です。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>これはお礼です。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>for(int i=0; i&lt;20; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>lily_14</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>（プラチナコインを20枚もらった）</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>（プラチナコインを20枚もらった）</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>lily_15</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>それと……あなたの協力を評価して、個人的に『繊細な泥犬』の称号を授与しましょう。ふふ、あなたは暴力だけではないのですね。</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>それと……あなたの協力を評価して、個人的に『繊細な泥犬』の称号を授与しましょう。ふふ、あなたは暴力だけではないのですね。</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>lily_16</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>これからも、何か特別な依頼があれば、あなたにお願いするかもしれません。……期待していますよ。</t>
         </is>
@@ -1676,24 +1681,24 @@
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>complete_quest(05_1_lily_experiment)</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>end</t>
         </is>
